--- a/biology/Microbiologie/Bacillota/Bacillota.xlsx
+++ b/biology/Microbiologie/Bacillota/Bacillota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bacillota – anciennement Firmicutes – sont un embranchement du règne des Bacteria. Son nom provient de Bacillus qui est le genre type de cet embranchement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bacillota – anciennement Firmicutes – sont un embranchement du règne des Bacteria. Son nom provient de Bacillus qui est le genre type de cet embranchement.
 Il comporte de nombreux genres impliqués en pathologie humaine tels que Bacillus, Clostridium, Enterococcus, Listeria, Staphylococcus et Streptococcus, ou encore Erysipelothrix et Veillonella. Certains (Bacillus, Lactobacillus, Streptococcus etc.) sont aussi d'une importance biotechnologique et industrielle.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé en 1978 par N. Gibbons et R. Murray sous le nom de « Firmacutes »[1]. Il va connaître ensuite une histoire mouvementée, faite de nombreuses propositions de renommage, comme l'atteste sa longue liste de synonymes. En 2021 une publication de A. Oren et G. Garrity dans l'IJSEM[2] valide son renommage en Bacillota conformément au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Bacillus, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé en 1978 par N. Gibbons et R. Murray sous le nom de « Firmacutes ». Il va connaître ensuite une histoire mouvementée, faite de nombreuses propositions de renommage, comme l'atteste sa longue liste de synonymes. En 2021 une publication de A. Oren et G. Garrity dans l'IJSEM valide son renommage en Bacillota conformément au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Bacillus, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classes validement publiées
-Selon la LPSN  (11 novembre 2022)[4] :
+          <t>Classes validement publiées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 novembre 2022) :
 Bacilli Ludwig et al. 2010
 Clostridia Rainey 2010
 Culicoidibacteria Neupane et al. 2020
 Erysipelotrichia Ludwig et al. 2010
 Limnochordia Watanabe et al. 2015
 Negativicutes Marchandin et al. 2010
-Thermolithobacteria Sokolova et al. 2007
-Classes en attente de publication valide
-Selon la LPSN  (11 novembre 2022)[4] cet embranchement comprend en 2022 une classe en attente de publication valide, les « Tissierellia » Alauzet et al. 2014.
+Thermolithobacteria Sokolova et al. 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bacillota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bacillota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classes en attente de publication valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (11 novembre 2022) cet embranchement comprend en 2022 une classe en attente de publication valide, les « Tissierellia » Alauzet et al. 2014.
 </t>
         </is>
       </c>
